--- a/MScProperties/Bug Log.xlsx
+++ b/MScProperties/Bug Log.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Bug Log</t>
   </si>
@@ -34,15 +37,149 @@
   <si>
     <t>Testing DateConversion class, when invoking dateToCalendar(Date date), I was getting a compiler error due to Null Pointer Exception, this was because when I was converting the utilDate to Calendar, I was assigning a Calendar field a null value and then trying to invoke the Calendar.setTime(Date date) method on the Calendar instance which contained a null value, this was causing the nullPointer exception because I am trying to invoke a method on a Null value, to fix this bug I had to assign a value to the Calendar instance before I could invoke Calendar.setTime(Date date), so instead of assigning a null value assigned the calendar instance the return value from invoking Calendar.getInstance() which returns an instance of the current date/time.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testing Database class, when loading title - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: Unknown column 'current' in 'field list' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- amended configuration of Element class to include current field, and forgot to add column to MySQL 'title' table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testing Database class, when loading modifications - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: Table 'msc_properties.titlemodifications' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doesn't exist - was using modifications class for all modifications then amended design and createdmodification classes for all modifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testing Database class, when loading modifications - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: Unknown column 'MR' in 'where clause' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- I believe the bug was due to testing method with no data in MySQL database and was using a where clause to return the modifications for specific title 'MR' but there was no records with code='MR'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testing Database class, when creatingModification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: Unknown column 'modifiedByDate' in 'field list' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- was refering to the column 'modifiedDate' as 'modifiedByDate' within SQL query</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testing Database class, when creatingModification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">java.sql.SQLException: Field 'modifiedByRef' doesn't have a default value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- forgot to set modifiedByRef column in MySQL table titleModifications to auto incremental, so no value was assigned to the table when trying to execute insert statement</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,8 +214,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,7 +521,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,28 +550,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/MScProperties/Bug Log.xlsx
+++ b/MScProperties/Bug Log.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Bug Log</t>
   </si>
@@ -156,6 +156,173 @@
         <scheme val="minor"/>
       </rPr>
       <t>- forgot to set modifiedByRef column in MySQL table titleModifications to auto incremental, so no value was assigned to the table when trying to execute insert statement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: Unknown column 'description' in 'field list'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - invoking loadMaritalStatus() --&gt; createElementMods() --&gt; loadModMaps() - forgot to create description column</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: FUNCTION msc_propertieslive2.count does not exist. Check the 'Function Name Parsing and Resolution' section in the Reference Manual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - invoking getJobBenefitCount() --&gt; due to select count (field) - space between count and (field)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exception in thread "main" java.lang.ClassCastException: java.util.HashMap$Values cannot be cast to java.util.List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- when invoking Database.createJobRole() --&gt; JobRole.getJobRequirements() --&gt; was casting HashMap.values() to (List) when it needed to be casted to List&lt;Element&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: Table 'msc_propertieslive2.jobrolerequirements' doesn't exist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- table name within database was named jobrolerequirement by accident so dropped table and created new table with correct name - when invoking Datbase.createJobRole()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: Unknown column 'createdDate' in 'order clause'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - when invoking Database.createJobRole() - added order by clause on createdDate column by accident, no createdDate column in table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java.sql.SQLException: No value specified for parameter 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - when invoking Database.updateJobRole() - because I was never setting the salary or current column values</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: You have an error in your SQL syntax; check the manual that corresponds to your MySQL server version for the right syntax to use near 'salary=29000.0, current=1, otherRead=1, otherWrite=1, otherUpdate=1, employeeRea' at line 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - when invoking Database.updateJobRole() - due to missing a comma seperating the jobDescription and salary columns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java.sql.SQLException: Field 'modificationRef' doesn't have a default value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - when invoking database.updateAddress() --&gt; Database.createmodifiedBy() - due to addressModifications table, modificationsRef column not being set to auto increment</t>
     </r>
   </si>
 </sst>
@@ -205,9 +372,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,117 +760,141 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>

--- a/MScProperties/Bug Log.xlsx
+++ b/MScProperties/Bug Log.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Bug Log</t>
   </si>
@@ -324,6 +324,53 @@
       </rPr>
       <t xml:space="preserve"> - when invoking database.updateAddress() --&gt; Database.createmodifiedBy() - due to addressModifications table, modificationsRef column not being set to auto increment</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exception in thread "main" java.lang.NullPointerException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - when running TestDatabase after invoking Property.getPropElement() and trying to invoke PropertyElement.updateProperty on return value and receiving NullPointerException due to no PropertyElement being loaded when Database.loadPropertyElementValues() is invoked due to testing if propertyExists(), but the property has not been added to Database.properties therefore statement was always false and no propertyElements would be added to property.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java.sql.SQLException: No value specified for parameter 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - when invoking Database.endPropertyInterest() I was using a PreparedStatement with two "?" parameters for appRef and propRef within the prepared statement when there was no need to as I was supplied the values from the method parameter so amended the PreparedStatement to a Statement and amended the sql String to add the paremeters required</t>
+    </r>
+  </si>
+  <si>
+    <t>Exception in thread "main" java.lang.IndexOutOfBoundsException: Source does not fit in dest - when invoking Application.setTenancy() due to invoking Collections.copy and dest List not having enough space to fit source list. To resolve I amended my code to invoke destList = new ArrayList(sourceList)</t>
   </si>
 </sst>
 </file>
@@ -691,7 +738,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,18 +871,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/MScProperties/Bug Log.xlsx
+++ b/MScProperties/Bug Log.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Bug Log</t>
   </si>
@@ -370,7 +370,29 @@
     </r>
   </si>
   <si>
-    <t>Exception in thread "main" java.lang.IndexOutOfBoundsException: Source does not fit in dest - when invoking Application.setTenancy() due to invoking Collections.copy and dest List not having enough space to fit source list. To resolve I amended my code to invoke destList = new ArrayList(sourceList)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exception in thread "main" java.lang.IndexOutOfBoundsException: Source does not fit in dest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - when invoking Application.setTenancy() due to invoking Collections.copy and dest List not having enough space to fit source list. To resolve I amended my code to invoke destList = new ArrayList(sourceList)</t>
+    </r>
+  </si>
+  <si>
+    <t>Modifications and Notes not loading up correctly, when invoking Database.loadModMap() or Database.loadNoteMap(). Only first Modification or Note for object is loading up at System start up. Upon further testing and investigation, I noticed that there was only one Modification or Note being added to the Map, once all modifications had been loaded from the MySQL database, and this was due to adding the object reference or code, that I am loading modifications or notes for, as the Key to the Map, which is meaning only one Note or Map was being added to the Map as the Key for a Map needs to be unique for each record so when adding additional records to the Map with the same Key, I am just overwriting the previous existing Value assigned to the record with the Key.</t>
   </si>
 </sst>
 </file>
@@ -737,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,8 +917,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/MScProperties/Bug Log.xlsx
+++ b/MScProperties/Bug Log.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Bug Log</t>
   </si>
@@ -393,6 +393,34 @@
   </si>
   <si>
     <t>Modifications and Notes not loading up correctly, when invoking Database.loadModMap() or Database.loadNoteMap(). Only first Modification or Note for object is loading up at System start up. Upon further testing and investigation, I noticed that there was only one Modification or Note being added to the Map, once all modifications had been loaded from the MySQL database, and this was due to adding the object reference or code, that I am loading modifications or notes for, as the Key to the Map, which is meaning only one Note or Map was being added to the Map as the Key for a Map needs to be unique for each record so when adding additional records to the Map with the same Key, I am just overwriting the previous existing Value assigned to the record with the Key.</t>
+  </si>
+  <si>
+    <t>When invoking Server.createTenancyType - No tenancy types were being added to the database or the system Lists, and was because I was invoking Database.createContactType within the if statement of the createTenancyType method instead of Database.createTenancyType, but because there was already a contactType with the same code name it was not created in the database as a Contact Type as it already existed (so at least duplicate elements are unable to be created, so the if statement is working correctly).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exception in thread "main" java.util.ConcurrentModificationException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - when invoking Database.getPeople() - because I was removing from a list in which I am currently iterating through using a for each loop. Amended code so instead of searching and removing object that dont meet criteria, I am searching and adding objects that meet the criteria to a different list so objects that meet criteria are held in a differnet list whic is then returned.</t>
+    </r>
+  </si>
+  <si>
+    <t>when invoking Database.getPeople() - semantics was not correct, was adding an object to the list as soon as they met 1 criteria without waiting until entire object state has been compared with parameter values.</t>
   </si>
 </sst>
 </file>
@@ -759,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,18 +953,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/MScProperties/Bug Log.xlsx
+++ b/MScProperties/Bug Log.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Bug Log</t>
   </si>
@@ -421,12 +421,24 @@
   </si>
   <si>
     <t>when invoking Database.getPeople() - semantics was not correct, was adding an object to the list as soon as they met 1 criteria without waiting until entire object state has been compared with parameter values.</t>
+  </si>
+  <si>
+    <t>Bug No.</t>
+  </si>
+  <si>
+    <t>when invoking deleteNote (for any class with a list of Note) - semantics (logic) was incorrect, was deleting the Note only if note.hasBeenModified(), which is incorrect as a note should only be able to be deleted if there has been no amendments to that note. so the correct if statement should be if !note.hasBeenModified().</t>
+  </si>
+  <si>
+    <t>when invoking Office.canCloseOffice() - semantics (logic) was incorrect, was returning the boolean answer for  !(hasCurrentAccount &amp;&amp; hasCurrent Agreement), - hasCurrentAccount() and hasCurrentAgreement() returns true when there is a current account or agreement respectively - when I was trying to determe if there is any current accounts or agreements associated with the office, and if so then the office can not be closed. The logic should have been !(hasCurrentAccount() || hasCurrentAgreement()) because the office should not be closed if there is a currentAccount OR a currentAgreement, and not if there is both.</t>
+  </si>
+  <si>
+    <t>when invoking Application.endInvolvedParty() - semantics (logic) was incorrect, was only ending the involvedParty if the involvedParty NOT isCurrent() which is incorrect as an involved party should only be ended if it is current (as if it is not current it means it was already ended). so the correct if statement should be !invParty.isCurrent()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -785,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,6 +809,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,209 +992,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B27" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
